--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -566,10 +566,8 @@
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>51*52*5</t>
-        </is>
+      <c r="G2" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>1.86</v>
@@ -649,10 +647,8 @@
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>28*16.5*11</t>
-        </is>
+      <c r="G4" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>2.42</v>
@@ -695,10 +691,8 @@
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>37*37*27</t>
-        </is>
+      <c r="G5" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H5" s="3" t="n">
         <v>10.24</v>
@@ -774,10 +768,8 @@
       <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>50*32*51</t>
-        </is>
+      <c r="G7" s="3" t="n">
+        <v>0.08</v>
       </c>
       <c r="H7" s="3" t="n">
         <v>6.92</v>
@@ -819,10 +811,8 @@
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>49*47.5*51.5</t>
-        </is>
+      <c r="G8" s="3" t="n">
+        <v>0.12</v>
       </c>
       <c r="H8" s="3" t="n">
         <v>9.4</v>
@@ -862,10 +852,8 @@
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>51*50*23</t>
-        </is>
+      <c r="G9" s="3" t="n">
+        <v>0.06</v>
       </c>
       <c r="H9" s="3" t="n">
         <v>5.84</v>
@@ -907,10 +895,8 @@
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>23*23*23</t>
-        </is>
+      <c r="G10" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H10" s="3" t="n">
         <v>10.08</v>
@@ -1117,10 +1103,8 @@
       <c r="F16" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>46*25*35</t>
-        </is>
+      <c r="G16" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H16" s="3" t="n">
         <v>40.6</v>
@@ -1160,10 +1144,8 @@
       <c r="F17" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>26*27*27</t>
-        </is>
+      <c r="G17" s="3" t="n">
+        <v>0.02</v>
       </c>
       <c r="H17" s="3" t="n">
         <v>15</v>
@@ -1467,10 +1449,8 @@
       <c r="F26" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>38*38*40</t>
-        </is>
+      <c r="G26" s="3" t="n">
+        <v>0.06</v>
       </c>
       <c r="H26" s="3" t="n">
         <v>60</v>
@@ -1510,10 +1490,8 @@
       <c r="F27" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>38*38*40</t>
-        </is>
+      <c r="G27" s="3" t="n">
+        <v>0.06</v>
       </c>
       <c r="H27" s="3" t="n">
         <v>20</v>
@@ -1553,10 +1531,8 @@
       <c r="F28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>38*38*40</t>
-        </is>
+      <c r="G28" s="3" t="n">
+        <v>0.06</v>
       </c>
       <c r="H28" s="3" t="n">
         <v>20</v>
@@ -1596,10 +1572,8 @@
       <c r="F29" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>54*26*7</t>
-        </is>
+      <c r="G29" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H29" s="3" t="n">
         <v>30.9</v>
@@ -1639,10 +1613,8 @@
       <c r="F30" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>54*26*5</t>
-        </is>
+      <c r="G30" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H30" s="3" t="n">
         <v>5.16</v>
@@ -1682,10 +1654,8 @@
       <c r="F31" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>20*20*10</t>
-        </is>
+      <c r="G31" s="3" t="n">
+        <v>0.01</v>
       </c>
       <c r="H31" s="3" t="n">
         <v>0.58</v>
@@ -2022,10 +1992,8 @@
       <c r="F41" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="3" t="inlineStr">
-        <is>
-          <t>76*74*7</t>
-        </is>
+      <c r="G41" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H41" s="3" t="n">
         <v>7.54</v>
@@ -2065,10 +2033,8 @@
       <c r="F42" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G42" s="3" t="inlineStr">
-        <is>
-          <t>76*74*7</t>
-        </is>
+      <c r="G42" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H42" s="3" t="n">
         <v>7.54</v>
@@ -2108,10 +2074,8 @@
       <c r="F43" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G43" s="3" t="inlineStr">
-        <is>
-          <t>22*40*40</t>
-        </is>
+      <c r="G43" s="3" t="n">
+        <v>0.04</v>
       </c>
       <c r="H43" s="3" t="n">
         <v>11.08</v>

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-XH2,54</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>端子</t>
+          <t>Connector-VH3.96</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>铣刀</t>
+          <t>Milling cutter</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-13.3mm*200m</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>胶带</t>
+          <t>Adhesive tape-21.3mm 200M/roll</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-200M/roll</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>载带</t>
+          <t>SMT carrier tape-400M/roll</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-K-5mm</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Point Bit-900M-T-B-1.2mm</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-4C</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900M-T-2C</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>烙铁头</t>
+          <t>Solder tip-900-T-1.2D</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>焊接海绵</t>
+          <t>Soldering sponge-size:60mm X 55mm</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>无尘布</t>
+          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30x75x4.0x1</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.0</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X3.5</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75X2.5X1</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT6</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT7</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X75XT8</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw Bit-6.30X100X3.8XT9</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>电批头</t>
+          <t>Screw bit-6.30X100X3.8XT10</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-50.60 mtrX300 mm</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>单侧皮带拉</t>
+          <t>Conveyor Belt-50.20mtrx400 mm</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>双侧皮带拉</t>
+          <t>Conveyor Belt-40.5mtrX300 mm</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>机械配件</t>
+          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>定位销</t>
+          <t>Positioning pin-FW07014AA</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>保险丝座</t>
+          <t>Fuse holder-plastic</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>三角刀</t>
+          <t>Metal cutters for feeder-triangle</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>送料器切刀</t>
+          <t>Metal cutters for feeder</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>螺杆</t>
+          <t>Threaded rod-WS1D-08004</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M5x12 WJ-10509</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-M3X12 WJ-10301</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw-LS1D-04026</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>弯形送料器</t>
+          <t>Metal block-LS1D-04021</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>螺丝</t>
+          <t>Screw -LS1D-07037</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1341 B/T</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
@@ -2019,7 +2019,7 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>钢网</t>
+          <t>Stencil-DH 21_1340 B/T</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1341 D/P</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>分板治具</t>
+          <t>D-panel Fixture-DH 21_1340 D/P</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -481,7 +481,8 @@
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -537,6 +538,11 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
+          <t>project</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
           <t>Material code</t>
         </is>
       </c>
@@ -580,7 +586,12 @@
           <t>F01</t>
         </is>
       </c>
-      <c r="K2" s="3" t="n"/>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -613,7 +624,12 @@
         <v>0.51</v>
       </c>
       <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="n"/>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -661,7 +677,12 @@
           <t>F02</t>
         </is>
       </c>
-      <c r="K4" s="3" t="n"/>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>SMT工厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -705,7 +726,12 @@
           <t>F03</t>
         </is>
       </c>
-      <c r="K5" s="3" t="n"/>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -739,7 +765,12 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -782,7 +813,12 @@
           <t>F04</t>
         </is>
       </c>
-      <c r="K7" s="3" t="n"/>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -825,7 +861,12 @@
           <t>F05</t>
         </is>
       </c>
-      <c r="K8" s="3" t="n"/>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -866,7 +907,12 @@
           <t>F06</t>
         </is>
       </c>
-      <c r="K9" s="3" t="n"/>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -909,7 +955,12 @@
           <t>F07</t>
         </is>
       </c>
-      <c r="K10" s="3" t="n"/>
+      <c r="K10" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -944,7 +995,12 @@
         <v>2.75</v>
       </c>
       <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="n"/>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -977,7 +1033,12 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="n"/>
+      <c r="K12" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -1010,7 +1071,12 @@
         <v>0.22</v>
       </c>
       <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="n"/>
+      <c r="K13" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1043,7 +1109,12 @@
         <v>0.22</v>
       </c>
       <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="n"/>
+      <c r="K14" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1076,7 +1147,12 @@
         <v>0.2</v>
       </c>
       <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
+      <c r="K15" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1117,7 +1193,12 @@
           <t>F08-F11</t>
         </is>
       </c>
-      <c r="K16" s="3" t="n"/>
+      <c r="K16" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -1158,7 +1239,12 @@
           <t>F12</t>
         </is>
       </c>
-      <c r="K17" s="3" t="n"/>
+      <c r="K17" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -1191,7 +1277,12 @@
         <v>3.31</v>
       </c>
       <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
+      <c r="K18" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -1224,7 +1315,12 @@
         <v>3.36</v>
       </c>
       <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="n"/>
+      <c r="K19" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1257,7 +1353,12 @@
         <v>1.68</v>
       </c>
       <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="n"/>
+      <c r="K20" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -1290,7 +1391,12 @@
         <v>0.75</v>
       </c>
       <c r="J21" s="3" t="n"/>
-      <c r="K21" s="3" t="n"/>
+      <c r="K21" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -1323,7 +1429,12 @@
         <v>0.5</v>
       </c>
       <c r="J22" s="3" t="n"/>
-      <c r="K22" s="3" t="n"/>
+      <c r="K22" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -1356,7 +1467,12 @@
         <v>0.42</v>
       </c>
       <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="n"/>
+      <c r="K23" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -1389,7 +1505,12 @@
         <v>0.42</v>
       </c>
       <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="n"/>
+      <c r="K24" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -1422,7 +1543,12 @@
         <v>0.92</v>
       </c>
       <c r="J25" s="3" t="n"/>
-      <c r="K25" s="3" t="n"/>
+      <c r="K25" s="3" t="inlineStr">
+        <is>
+          <t>组装厂月度辅耗材</t>
+        </is>
+      </c>
+      <c r="L25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -1463,7 +1589,12 @@
           <t>F13-F15</t>
         </is>
       </c>
-      <c r="K26" s="3" t="n"/>
+      <c r="K26" s="3" t="inlineStr">
+        <is>
+          <t>组装厂</t>
+        </is>
+      </c>
+      <c r="L26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -1504,7 +1635,12 @@
           <t>F16</t>
         </is>
       </c>
-      <c r="K27" s="3" t="n"/>
+      <c r="K27" s="3" t="inlineStr">
+        <is>
+          <t>组装厂</t>
+        </is>
+      </c>
+      <c r="L27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -1545,7 +1681,12 @@
           <t>F17</t>
         </is>
       </c>
-      <c r="K28" s="3" t="n"/>
+      <c r="K28" s="3" t="inlineStr">
+        <is>
+          <t>组装厂</t>
+        </is>
+      </c>
+      <c r="L28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -1586,7 +1727,12 @@
           <t>F18-F20</t>
         </is>
       </c>
-      <c r="K29" s="3" t="n"/>
+      <c r="K29" s="3" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="L29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -1627,7 +1773,12 @@
           <t>F21</t>
         </is>
       </c>
-      <c r="K30" s="3" t="n"/>
+      <c r="K30" s="3" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="L30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
@@ -1668,7 +1819,12 @@
           <t>F22</t>
         </is>
       </c>
-      <c r="K31" s="3" t="n"/>
+      <c r="K31" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
@@ -1701,7 +1857,12 @@
         <v>0.05</v>
       </c>
       <c r="J32" s="3" t="n"/>
-      <c r="K32" s="3" t="n"/>
+      <c r="K32" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -1734,7 +1895,12 @@
         <v>0.02</v>
       </c>
       <c r="J33" s="3" t="n"/>
-      <c r="K33" s="3" t="n"/>
+      <c r="K33" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -1767,7 +1933,12 @@
         <v>0.05</v>
       </c>
       <c r="J34" s="3" t="n"/>
-      <c r="K34" s="3" t="n"/>
+      <c r="K34" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -1800,7 +1971,12 @@
         <v>0.05</v>
       </c>
       <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="n"/>
+      <c r="K35" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
@@ -1833,7 +2009,12 @@
         <v>0.1</v>
       </c>
       <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="n"/>
+      <c r="K36" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
@@ -1866,7 +2047,12 @@
         <v>0.1</v>
       </c>
       <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="n"/>
+      <c r="K37" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -1899,7 +2085,12 @@
         <v>0.1</v>
       </c>
       <c r="J38" s="3" t="n"/>
-      <c r="K38" s="3" t="n"/>
+      <c r="K38" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
@@ -1932,7 +2123,12 @@
         <v>0.01</v>
       </c>
       <c r="J39" s="3" t="n"/>
-      <c r="K39" s="3" t="n"/>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
@@ -1965,7 +2161,12 @@
         <v>0.03</v>
       </c>
       <c r="J40" s="3" t="n"/>
-      <c r="K40" s="3" t="n"/>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>麦格米特</t>
+        </is>
+      </c>
+      <c r="L40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -2006,7 +2207,12 @@
           <t>F23</t>
         </is>
       </c>
-      <c r="K41" s="3" t="n"/>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
+      <c r="L41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -2047,7 +2253,12 @@
           <t>F24</t>
         </is>
       </c>
-      <c r="K42" s="3" t="n"/>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
+      <c r="L42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -2088,7 +2299,12 @@
           <t>F25</t>
         </is>
       </c>
-      <c r="K43" s="3" t="n"/>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
+      <c r="L43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -2121,7 +2337,12 @@
         <v>5</v>
       </c>
       <c r="J44" s="3" t="n"/>
-      <c r="K44" s="3" t="n"/>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>大华</t>
+        </is>
+      </c>
+      <c r="L44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
@@ -2134,7 +2355,8 @@
       <c r="H45" s="3" t="n"/>
       <c r="I45" s="3" t="n"/>
       <c r="J45" s="3" t="n"/>
-      <c r="K45" s="3" t="inlineStr">
+      <c r="K45" s="3" t="n"/>
+      <c r="L45" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -481,8 +481,7 @@
     <col width="12" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -538,11 +537,6 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
           <t>Material code</t>
         </is>
       </c>
@@ -586,12 +580,7 @@
           <t>F01</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="n"/>
+      <c r="K2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
@@ -624,12 +613,7 @@
         <v>0.51</v>
       </c>
       <c r="J3" s="3" t="n"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
@@ -677,12 +661,7 @@
           <t>F02</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="n"/>
+      <c r="K4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
@@ -726,12 +705,7 @@
           <t>F03</t>
         </is>
       </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
@@ -765,12 +739,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="n"/>
+      <c r="K6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
@@ -813,12 +782,7 @@
           <t>F04</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -861,12 +825,7 @@
           <t>F05</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="n"/>
+      <c r="K8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
@@ -907,12 +866,7 @@
           <t>F06</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="L9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
@@ -955,12 +909,7 @@
           <t>F07</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L10" s="3" t="n"/>
+      <c r="K10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
@@ -995,12 +944,7 @@
         <v>2.75</v>
       </c>
       <c r="J11" s="3" t="n"/>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -1033,12 +977,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="3" t="n"/>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L12" s="3" t="n"/>
+      <c r="K12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
@@ -1071,12 +1010,7 @@
         <v>0.22</v>
       </c>
       <c r="J13" s="3" t="n"/>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
@@ -1109,12 +1043,7 @@
         <v>0.22</v>
       </c>
       <c r="J14" s="3" t="n"/>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L14" s="3" t="n"/>
+      <c r="K14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
@@ -1147,12 +1076,7 @@
         <v>0.2</v>
       </c>
       <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
@@ -1193,12 +1117,7 @@
           <t>F08-F11</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L16" s="3" t="n"/>
+      <c r="K16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
@@ -1239,12 +1158,7 @@
           <t>F12</t>
         </is>
       </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
@@ -1277,12 +1191,7 @@
         <v>3.31</v>
       </c>
       <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L18" s="3" t="n"/>
+      <c r="K18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -1315,12 +1224,7 @@
         <v>3.36</v>
       </c>
       <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
@@ -1353,12 +1257,7 @@
         <v>1.68</v>
       </c>
       <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L20" s="3" t="n"/>
+      <c r="K20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
@@ -1391,12 +1290,7 @@
         <v>0.75</v>
       </c>
       <c r="J21" s="3" t="n"/>
-      <c r="K21" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L21" s="3" t="n"/>
+      <c r="K21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
@@ -1429,12 +1323,7 @@
         <v>0.5</v>
       </c>
       <c r="J22" s="3" t="n"/>
-      <c r="K22" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L22" s="3" t="n"/>
+      <c r="K22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
@@ -1467,12 +1356,7 @@
         <v>0.42</v>
       </c>
       <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L23" s="3" t="n"/>
+      <c r="K23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
@@ -1505,12 +1389,7 @@
         <v>0.42</v>
       </c>
       <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L24" s="3" t="n"/>
+      <c r="K24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
@@ -1543,12 +1422,7 @@
         <v>0.92</v>
       </c>
       <c r="J25" s="3" t="n"/>
-      <c r="K25" s="3" t="inlineStr">
-        <is>
-          <t>组装厂月度辅耗材</t>
-        </is>
-      </c>
-      <c r="L25" s="3" t="n"/>
+      <c r="K25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
@@ -1589,12 +1463,7 @@
           <t>F13-F15</t>
         </is>
       </c>
-      <c r="K26" s="3" t="inlineStr">
-        <is>
-          <t>组装厂</t>
-        </is>
-      </c>
-      <c r="L26" s="3" t="n"/>
+      <c r="K26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
@@ -1635,12 +1504,7 @@
           <t>F16</t>
         </is>
       </c>
-      <c r="K27" s="3" t="inlineStr">
-        <is>
-          <t>组装厂</t>
-        </is>
-      </c>
-      <c r="L27" s="3" t="n"/>
+      <c r="K27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
@@ -1681,12 +1545,7 @@
           <t>F17</t>
         </is>
       </c>
-      <c r="K28" s="3" t="inlineStr">
-        <is>
-          <t>组装厂</t>
-        </is>
-      </c>
-      <c r="L28" s="3" t="n"/>
+      <c r="K28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
@@ -1727,12 +1586,7 @@
           <t>F18-F20</t>
         </is>
       </c>
-      <c r="K29" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="L29" s="3" t="n"/>
+      <c r="K29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
@@ -1773,12 +1627,7 @@
           <t>F21</t>
         </is>
       </c>
-      <c r="K30" s="3" t="inlineStr">
-        <is>
-          <t>SMT工厂设备配件</t>
-        </is>
-      </c>
-      <c r="L30" s="3" t="n"/>
+      <c r="K30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
@@ -1819,12 +1668,7 @@
           <t>F22</t>
         </is>
       </c>
-      <c r="K31" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L31" s="3" t="n"/>
+      <c r="K31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
@@ -1857,12 +1701,7 @@
         <v>0.05</v>
       </c>
       <c r="J32" s="3" t="n"/>
-      <c r="K32" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L32" s="3" t="n"/>
+      <c r="K32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
@@ -1895,12 +1734,7 @@
         <v>0.02</v>
       </c>
       <c r="J33" s="3" t="n"/>
-      <c r="K33" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L33" s="3" t="n"/>
+      <c r="K33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
@@ -1933,12 +1767,7 @@
         <v>0.05</v>
       </c>
       <c r="J34" s="3" t="n"/>
-      <c r="K34" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L34" s="3" t="n"/>
+      <c r="K34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
@@ -1971,12 +1800,7 @@
         <v>0.05</v>
       </c>
       <c r="J35" s="3" t="n"/>
-      <c r="K35" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L35" s="3" t="n"/>
+      <c r="K35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
@@ -2009,12 +1833,7 @@
         <v>0.1</v>
       </c>
       <c r="J36" s="3" t="n"/>
-      <c r="K36" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L36" s="3" t="n"/>
+      <c r="K36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
@@ -2047,12 +1866,7 @@
         <v>0.1</v>
       </c>
       <c r="J37" s="3" t="n"/>
-      <c r="K37" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L37" s="3" t="n"/>
+      <c r="K37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
@@ -2085,12 +1899,7 @@
         <v>0.1</v>
       </c>
       <c r="J38" s="3" t="n"/>
-      <c r="K38" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L38" s="3" t="n"/>
+      <c r="K38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
@@ -2123,12 +1932,7 @@
         <v>0.01</v>
       </c>
       <c r="J39" s="3" t="n"/>
-      <c r="K39" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L39" s="3" t="n"/>
+      <c r="K39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
@@ -2161,12 +1965,7 @@
         <v>0.03</v>
       </c>
       <c r="J40" s="3" t="n"/>
-      <c r="K40" s="3" t="inlineStr">
-        <is>
-          <t>麦格米特</t>
-        </is>
-      </c>
-      <c r="L40" s="3" t="n"/>
+      <c r="K40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
@@ -2207,12 +2006,7 @@
           <t>F23</t>
         </is>
       </c>
-      <c r="K41" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="L41" s="3" t="n"/>
+      <c r="K41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
@@ -2253,12 +2047,7 @@
           <t>F24</t>
         </is>
       </c>
-      <c r="K42" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="L42" s="3" t="n"/>
+      <c r="K42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
@@ -2299,12 +2088,7 @@
           <t>F25</t>
         </is>
       </c>
-      <c r="K43" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="L43" s="3" t="n"/>
+      <c r="K43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
@@ -2337,12 +2121,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="3" t="n"/>
-      <c r="K44" s="3" t="inlineStr">
-        <is>
-          <t>大华</t>
-        </is>
-      </c>
-      <c r="L44" s="3" t="n"/>
+      <c r="K44" s="3" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n"/>
@@ -2355,8 +2134,7 @@
       <c r="H45" s="3" t="n"/>
       <c r="I45" s="3" t="n"/>
       <c r="J45" s="3" t="n"/>
-      <c r="K45" s="3" t="n"/>
-      <c r="L45" s="3" t="inlineStr">
+      <c r="K45" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -549,71 +549,63 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>C100.030911007</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Connector-XH2,54</t>
-        </is>
-      </c>
+          <t>E100.020310008</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>XH2,54 端子，1包50个</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>7000</v>
+        <v>3</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>F01</t>
+          <t>F02</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>E100.020310014</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>12-14</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>2</v>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>C100.030911008</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Connector-VH3.96</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>VH3.96 端子，1包50个</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>3000</v>
       </c>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
@@ -621,93 +613,67 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>C100.C05-032-04-00</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Milling cutter</t>
-        </is>
-      </c>
+          <t>E100.020310015</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Material: Tungsten Carbide Steel
-Mill Type: Standard Up Draft Type
-Tip Type: Standard Fish Tail Type
-Total Length: 38.1mm
-Knife Length: 12.5mm
-Handle Length: 25.6mm
-Shank Diameter: 3.175mm
-Kinfe Diameter: 1.6mm</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>450</v>
-      </c>
-      <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
       <c r="H4" s="3" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>F02</t>
-        </is>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L4" s="3" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>C100.C09-004-01-00</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Adhesive tape-13.3mm*200m</t>
-        </is>
-      </c>
+          <t>E100.020310008</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>13.3mm*200m/
-JL62 13.3*200
-230415455Y8212
-self-adhesive upper cover material Film</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E5" s="3" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
@@ -716,10 +682,10 @@
         <v>0.04</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>10.24</v>
+        <v>1.88</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>7</v>
+        <v>1.55</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -728,133 +694,116 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L5" s="3" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>C100.010503001</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>Adhesive tape-21.3mm 200M/roll</t>
-        </is>
-      </c>
+          <t>E100.A37-066-02-00</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>PS载带封合上盖带SMT封料膜防静电自粘盖带
-21.3mm 200M/卷</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
+        <v>100</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0.01</v>
+      </c>
       <c r="H6" s="3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t>F04</t>
+        </is>
+      </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L6" s="3" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>C100.010523005</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>SMT carrier tape-200M/roll</t>
-        </is>
-      </c>
+          <t>J100.020715018</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
-24*16*0.30 
-200米/卷</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>0.08</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n">
-        <v>6.92</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>F04</t>
-        </is>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>C100.010523005</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>SMT carrier tape-200M/roll</t>
-        </is>
-      </c>
+          <t>E100.020200009</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>PS载带编带SOIC16 -11x11电子元器件包装封装
-24*16*0.30 
-200米/卷</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>9.199999999999999</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -863,204 +812,180 @@
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>C100.010523004</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>SMT carrier tape-400M/roll</t>
-        </is>
-      </c>
+          <t>E100.020310017</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>PS载带编带BGA16-6*8半导体电子元器件封装包装 16*8*0.3 400M/卷</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>0.06</v>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n">
-        <v>5.84</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>5.69</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
-        <is>
-          <t>F06</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J9" s="3" t="n"/>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-05-01</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>Solder tip-900M-T-K-5mm</t>
-        </is>
-      </c>
+          <t>E100.020310012</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-K
-3.刀口宽度：5mm</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E10" s="3" t="n">
-        <v>465</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>0.01</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n">
-        <v>10.08</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
-        <is>
-          <t>F07</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="n"/>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>Point Bit-900M-T-B-1.2mm</t>
-        </is>
-      </c>
+          <t>E100.A33-013-03-00</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>1.符合白光牌烙铁手柄使用；
-2. 900M-T-B
-3.圆头，宽度1.2mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E11" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>0.01</v>
+      </c>
       <c r="H11" s="3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J11" s="3" t="n"/>
+        <v>1.23</v>
+      </c>
+      <c r="J11" s="3" t="inlineStr">
+        <is>
+          <t>F06</t>
+        </is>
+      </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>Solder tip-900M-T-4C</t>
-        </is>
-      </c>
+          <t>J100.S07-010-10-00</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E12" s="3" t="n">
-        <v>546</v>
-      </c>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>0.01</v>
+      </c>
       <c r="H12" s="3" t="n">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="n"/>
+        <v>0.15</v>
+      </c>
+      <c r="J12" s="3" t="inlineStr">
+        <is>
+          <t>F07</t>
+        </is>
+      </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>Solder tip-900M-T-2C</t>
-        </is>
-      </c>
+          <t>J100.S07-010-04-01</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>900M-T-B</t>
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v>40</v>
+        <v>500</v>
       </c>
       <c r="F13" s="3" t="n"/>
       <c r="G13" s="3" t="n"/>
@@ -1068,37 +993,33 @@
         <v>0</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.22</v>
+        <v>2.5</v>
       </c>
       <c r="J13" s="3" t="n"/>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>Solder tip-900-T-1.2D</t>
-        </is>
-      </c>
+          <t>J100.S07-010-06-01</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>900M-T-4C</t>
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
@@ -1106,37 +1027,33 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.22</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3" t="n"/>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>Soldering sponge-size:60mm X 55mm</t>
-        </is>
-      </c>
+          <t>J100.S07-010-06-02</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>size:60mm X 55mm</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="F15" s="3" t="n"/>
       <c r="G15" s="3" t="n"/>
@@ -1149,124 +1066,96 @@
       <c r="J15" s="3" t="n"/>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L15" s="3" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-019-05-00</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>Cleaning cloth-L*W 4*4CM 400pcs/bog</t>
-        </is>
-      </c>
+          <t>J100.S07-010-11-00</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>L*W 4*4CM 400pcs/bog</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F16" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="3" t="n">
-        <v>0.04</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>F08-F11</t>
-        </is>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="3" t="n"/>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L16" s="3" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30x75x4.0x1</t>
-        </is>
-      </c>
+          <t>C100.C06-007-01-00</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>6.30x75x4.0x1</t>
+          <t>WRNT-013</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="F17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>0.02</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>F12</t>
-        </is>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="J17" s="3" t="n"/>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75X3.0</t>
-        </is>
-      </c>
+          <t>C100.C06-019-06-00</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>6.30X75X3.0</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
@@ -1274,75 +1163,75 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>3.31</v>
+        <v>1.25</v>
       </c>
       <c r="J18" s="3" t="n"/>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L18" s="3" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75X3.5</t>
-        </is>
-      </c>
+          <t>E100.A20-001-15-00</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n"/>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>6.30X75X3.5</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E19" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+        <v>388</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0.02</v>
+      </c>
       <c r="H19" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="J19" s="3" t="n"/>
+        <v>3.49</v>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>F08</t>
+        </is>
+      </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75X2.5X1</t>
-        </is>
-      </c>
+          <t>E100.A20-001-16-00</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>6.30X75X2.5X1</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E20" s="3" t="n">
-        <v>200</v>
+        <v>457</v>
       </c>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
@@ -1350,37 +1239,33 @@
         <v>0</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>1.68</v>
+        <v>4.11</v>
       </c>
       <c r="J20" s="3" t="n"/>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75XT6</t>
-        </is>
-      </c>
+          <t>E100.A20-001-17-00</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n"/>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>6.30X75XT6</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E21" s="3" t="n">
-        <v>90</v>
+        <v>458</v>
       </c>
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
@@ -1388,37 +1273,33 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>0.75</v>
+        <v>4.12</v>
       </c>
       <c r="J21" s="3" t="n"/>
       <c r="K21" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75XT7</t>
-        </is>
-      </c>
+          <t>E100.A20-001-20-00</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>6.30X75XT7</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E22" s="3" t="n">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
@@ -1426,37 +1307,33 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>0.5</v>
+        <v>2.58</v>
       </c>
       <c r="J22" s="3" t="n"/>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L22" s="3" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X75XT8</t>
-        </is>
-      </c>
+          <t>E100.A20-001-52-00</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n"/>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>6.30X75XT8</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E23" s="3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
@@ -1464,37 +1341,33 @@
         <v>0</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="J23" s="3" t="n"/>
       <c r="K23" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>Screw Bit-6.30X100X3.8XT9</t>
-        </is>
-      </c>
+          <t>E100.A20-001-53-00</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>6.30X100X3.8XT9</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E24" s="3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
@@ -1502,37 +1375,33 @@
         <v>0</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>0.42</v>
+        <v>0.54</v>
       </c>
       <c r="J24" s="3" t="n"/>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Screw bit-6.30X100X3.8XT10</t>
-        </is>
-      </c>
+          <t>E100.A20-001-54-00</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>6.30X100X3.8XT10</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E25" s="3" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
@@ -1540,221 +1409,185 @@
         <v>0</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>0.92</v>
+        <v>0.45</v>
       </c>
       <c r="J25" s="3" t="n"/>
       <c r="K25" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L25" s="3" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>E100.019100006</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>Conveyor Belt-50.60 mtrX300 mm</t>
-        </is>
-      </c>
+          <t>E100.A20-001-22-00</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>50.60 mtrX300 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E26" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>0.06</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F26" s="3" t="n"/>
+      <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="J26" s="3" t="inlineStr">
-        <is>
-          <t>F13-F15</t>
-        </is>
-      </c>
+        <v>0.45</v>
+      </c>
+      <c r="J26" s="3" t="n"/>
       <c r="K26" s="3" t="inlineStr">
         <is>
-          <t>组装厂</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>E100.019100007</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Conveyor Belt-50.20mtrx400 mm</t>
-        </is>
-      </c>
+          <t>E100.A20-001-33-00</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>50.20mtrx400 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <v>0.06</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="J27" s="3" t="inlineStr">
-        <is>
-          <t>F16</t>
-        </is>
-      </c>
+        <v>0.99</v>
+      </c>
+      <c r="J27" s="3" t="n"/>
       <c r="K27" s="3" t="inlineStr">
         <is>
-          <t>组装厂</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>E100.019100008</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>Conveyor Belt-40.5mtrX300 mm</t>
-        </is>
-      </c>
+          <t>C100.C06-006-01-00</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>40.5mtrX300 mm</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E28" s="3" t="n">
-        <v>1</v>
+        <v>2040</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>0.06</v>
+        <v>6.12</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>20</v>
+        <v>17.71</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>19</v>
+        <v>1200</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>F17</t>
+          <t>F09-F76</t>
         </is>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>组装厂</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>E100.020308001</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
-        </is>
-      </c>
+          <t>C100.C06-006-02-00</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>长510MM 宽223MM  高11MM</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E29" s="3" t="n">
-        <v>6</v>
+        <v>2800</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>0.01</v>
+        <v>3.92</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>30.9</v>
+        <v>15.5</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>30.52</v>
+        <v>866</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t>F18-F20</t>
+          <t>F77-F132</t>
         </is>
       </c>
       <c r="K29" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>E100.020308001</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>PCB holding plate - used for printing machine-metal-510MM*223MM*11MM</t>
-        </is>
-      </c>
+          <t>E100.020349014</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>长510MM 宽223MM  高11MM</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E30" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="3" t="n">
         <v>1</v>
@@ -1763,356 +1596,368 @@
         <v>0.01</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>5.16</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>F21</t>
+          <t>F133</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>E100.0203133015</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>Positioning pin-FW07014AA</t>
-        </is>
-      </c>
+          <t>E100.A37-154-01-00</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>FW07014AA</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E31" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="n">
-        <v>0.01</v>
-      </c>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
       <c r="H31" s="3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="J31" s="3" t="n"/>
       <c r="K31" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104009</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>Fuse holder-plastic</t>
-        </is>
-      </c>
+          <t>E100.0111901002</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>排料机保险丝座</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E32" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0.06</v>
+      </c>
       <c r="H32" s="3" t="n">
-        <v>0</v>
+        <v>34.24</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J32" s="3" t="n"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>F134</t>
+        </is>
+      </c>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104007</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>Metal cutters for feeder-triangle</t>
-        </is>
-      </c>
+          <t>J100.031003005</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>排料机三角刀</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E33" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0.05</v>
+      </c>
       <c r="H33" s="3" t="n">
-        <v>0</v>
+        <v>34.91</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J33" s="3" t="n"/>
+        <v>34</v>
+      </c>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>F137</t>
+        </is>
+      </c>
       <c r="K33" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L33" s="3" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104017</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>Metal cutters for feeder</t>
-        </is>
-      </c>
+          <t>E100.021335001</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>排料机送料器切刀</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E34" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F34" s="3" t="n"/>
-      <c r="G34" s="3" t="n"/>
+        <v>9</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0.01</v>
+      </c>
       <c r="H34" s="3" t="n">
-        <v>0</v>
+        <v>10.63</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J34" s="3" t="n"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>F138</t>
+        </is>
+      </c>
       <c r="K34" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162160</t>
-        </is>
-      </c>
-      <c r="C35" s="3" t="inlineStr">
-        <is>
-          <t>Threaded rod-WS1D-08004</t>
-        </is>
-      </c>
+          <t>E100.E17-003-01-00</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>WS1D-08004</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E35" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3" t="n"/>
-      <c r="G35" s="3" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="H35" s="3" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J35" s="3" t="n"/>
+        <v>270</v>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>F146-F155</t>
+        </is>
+      </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162100</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>Screw-M5x12 WJ-10509</t>
-        </is>
-      </c>
+          <t>E100.E17-004-01-00</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>Part No.: WJ-10509</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E36" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F36" s="3" t="n"/>
-      <c r="G36" s="3" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>4.3</v>
+      </c>
       <c r="H36" s="3" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J36" s="3" t="n"/>
+        <v>440</v>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>F156-F165</t>
+        </is>
+      </c>
       <c r="K36" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162049</t>
-        </is>
-      </c>
-      <c r="C37" s="3" t="inlineStr">
-        <is>
-          <t>Screw-M3X12 WJ-10301</t>
-        </is>
-      </c>
+          <t>E100.020396013</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>Part No.: WJ-10301</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E37" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F37" s="3" t="n"/>
-      <c r="G37" s="3" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>0.02</v>
+      </c>
       <c r="H37" s="3" t="n">
-        <v>0</v>
+        <v>15.16</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J37" s="3" t="n"/>
+        <v>15</v>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>F166</t>
+        </is>
+      </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162047</t>
-        </is>
-      </c>
-      <c r="C38" s="3" t="inlineStr">
-        <is>
-          <t>Screw-LS1D-04026</t>
-        </is>
-      </c>
+          <t>E100.0203104001</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>Part No.: LS1D-04026</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E38" s="3" t="n">
-        <v>20</v>
-      </c>
-      <c r="F38" s="3" t="n"/>
-      <c r="G38" s="3" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>0.02</v>
+      </c>
       <c r="H38" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J38" s="3" t="n"/>
+        <v>0.09</v>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>F167</t>
+        </is>
+      </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162043</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>Metal block-LS1D-04021</t>
-        </is>
-      </c>
+          <t>E100.0203154000</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>Part No.: LS1D-04021</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E39" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F39" s="3" t="n"/>
       <c r="G39" s="3" t="n"/>
@@ -2120,37 +1965,33 @@
         <v>0</v>
       </c>
       <c r="I39" s="3" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="J39" s="3" t="n"/>
       <c r="K39" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>E100.020344000</t>
-        </is>
-      </c>
-      <c r="C40" s="3" t="inlineStr">
-        <is>
-          <t>Screw -LS1D-07037</t>
-        </is>
-      </c>
+          <t>E100.0203125000</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>LS1D-07037</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E40" s="3" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
@@ -2158,175 +1999,135 @@
         <v>0</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>0.03</v>
+        <v>4.5</v>
       </c>
       <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>J100.J01-002-05-00</t>
-        </is>
-      </c>
-      <c r="C41" s="3" t="inlineStr">
-        <is>
-          <t>Stencil-DH 21_1341 B/T</t>
-        </is>
-      </c>
+          <t>E100.0203162159</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n"/>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>DH 21_1341 B/T</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E41" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="H41" s="3" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
+      <c r="J41" s="3" t="n"/>
       <c r="K41" s="3" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>J100.J01-002-05-00</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr">
-        <is>
-          <t>Stencil-DH 21_1340 B/T</t>
-        </is>
-      </c>
+          <t>E100.0203133001</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>DH 21_1340 B/T</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E42" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="n"/>
+      <c r="G42" s="3" t="n"/>
+      <c r="H42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="n">
         <v>0.04</v>
       </c>
-      <c r="H42" s="3" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="I42" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
+      <c r="J42" s="3" t="n"/>
       <c r="K42" s="3" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L42" s="3" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>J100.J03-002-01-00</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>D-panel Fixture-DH 21_1341 D/P</t>
-        </is>
-      </c>
+          <t>E100.E00-011-15-01</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>DH 21_1341 D/P</t>
+          <t>KYB-M7027-001</t>
         </is>
       </c>
       <c r="E43" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F43" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n">
-        <v>11.08</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>F25</t>
-        </is>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="J43" s="3" t="n"/>
       <c r="K43" s="3" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L43" s="3" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>J100.J03-002-01-00</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>D-panel Fixture-DH 21_1340 D/P</t>
-        </is>
-      </c>
+          <t>E100.020396061</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="n"/>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>DH 21_1340 D/P</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E44" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F44" s="3" t="n"/>
       <c r="G44" s="3" t="n"/>
@@ -2334,29 +2135,275 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>5</v>
+        <v>0.09</v>
       </c>
       <c r="J44" s="3" t="n"/>
       <c r="K44" s="3" t="inlineStr">
         <is>
-          <t>大华</t>
+          <t>工厂</t>
         </is>
       </c>
       <c r="L44" s="3" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n"/>
-      <c r="B45" s="3" t="n"/>
+      <c r="A45" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396062</t>
+        </is>
+      </c>
       <c r="C45" s="3" t="n"/>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="3" t="n"/>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>10</v>
+      </c>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
-      <c r="H45" s="3" t="n"/>
-      <c r="I45" s="3" t="n"/>
+      <c r="H45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>0.09</v>
+      </c>
       <c r="J45" s="3" t="n"/>
-      <c r="K45" s="3" t="n"/>
-      <c r="L45" s="3" t="inlineStr">
+      <c r="K45" s="3" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="L45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396047</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
+      <c r="H46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J46" s="3" t="n"/>
+      <c r="K46" s="3" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="L46" s="3" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396048</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J47" s="3" t="n"/>
+      <c r="K47" s="3" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="L47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396049</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="3" t="n"/>
+      <c r="G48" s="3" t="n"/>
+      <c r="H48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J48" s="3" t="n"/>
+      <c r="K48" s="3" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="L48" s="3" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396050</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J49" s="3" t="n"/>
+      <c r="K49" s="3" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="L49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396055</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="n"/>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J50" s="3" t="inlineStr">
+        <is>
+          <t>F168</t>
+        </is>
+      </c>
+      <c r="K50" s="3" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="L50" s="3" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J51" s="3" t="n"/>
+      <c r="K51" s="3" t="inlineStr">
+        <is>
+          <t>工厂</t>
+        </is>
+      </c>
+      <c r="L51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n"/>
+      <c r="B52" s="3" t="n"/>
+      <c r="C52" s="3" t="n"/>
+      <c r="D52" s="3" t="n"/>
+      <c r="E52" s="3" t="n"/>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
+      <c r="H52" s="3" t="n"/>
+      <c r="I52" s="3" t="n"/>
+      <c r="J52" s="3" t="n"/>
+      <c r="K52" s="3" t="n"/>
+      <c r="L52" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L2" s="3" t="n"/>
@@ -618,7 +618,7 @@
       <c r="J3" s="3" t="n"/>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L3" s="3" t="n"/>
@@ -652,7 +652,7 @@
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L4" s="3" t="n"/>
@@ -694,7 +694,7 @@
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L5" s="3" t="n"/>
@@ -736,7 +736,7 @@
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L6" s="3" t="n"/>
@@ -770,7 +770,7 @@
       <c r="J7" s="3" t="n"/>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="L7" s="3" t="n"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L8" s="3" t="n"/>
@@ -846,7 +846,7 @@
       <c r="J9" s="3" t="n"/>
       <c r="K9" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L9" s="3" t="n"/>
@@ -880,7 +880,7 @@
       <c r="J10" s="3" t="n"/>
       <c r="K10" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L10" s="3" t="n"/>
@@ -922,7 +922,7 @@
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L11" s="3" t="n"/>
@@ -964,7 +964,7 @@
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="L12" s="3" t="n"/>
@@ -998,7 +998,7 @@
       <c r="J13" s="3" t="n"/>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L13" s="3" t="n"/>
@@ -1032,7 +1032,7 @@
       <c r="J14" s="3" t="n"/>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L14" s="3" t="n"/>
@@ -1066,7 +1066,7 @@
       <c r="J15" s="3" t="n"/>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L15" s="3" t="n"/>
@@ -1100,7 +1100,7 @@
       <c r="J16" s="3" t="n"/>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L16" s="3" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="J17" s="3" t="n"/>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L17" s="3" t="n"/>
@@ -1168,7 +1168,7 @@
       <c r="J18" s="3" t="n"/>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L18" s="3" t="n"/>
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L19" s="3" t="n"/>
@@ -1244,7 +1244,7 @@
       <c r="J20" s="3" t="n"/>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L20" s="3" t="n"/>
@@ -1278,7 +1278,7 @@
       <c r="J21" s="3" t="n"/>
       <c r="K21" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L21" s="3" t="n"/>
@@ -1312,7 +1312,7 @@
       <c r="J22" s="3" t="n"/>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L22" s="3" t="n"/>
@@ -1346,7 +1346,7 @@
       <c r="J23" s="3" t="n"/>
       <c r="K23" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L23" s="3" t="n"/>
@@ -1380,7 +1380,7 @@
       <c r="J24" s="3" t="n"/>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L24" s="3" t="n"/>
@@ -1414,7 +1414,7 @@
       <c r="J25" s="3" t="n"/>
       <c r="K25" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L25" s="3" t="n"/>
@@ -1448,7 +1448,7 @@
       <c r="J26" s="3" t="n"/>
       <c r="K26" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L26" s="3" t="n"/>
@@ -1482,7 +1482,7 @@
       <c r="J27" s="3" t="n"/>
       <c r="K27" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L27" s="3" t="n"/>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="L28" s="3" t="n"/>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="K29" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="L29" s="3" t="n"/>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="L30" s="3" t="n"/>
@@ -1642,7 +1642,7 @@
       <c r="J31" s="3" t="n"/>
       <c r="K31" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L31" s="3" t="n"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="L32" s="3" t="n"/>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="K33" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="L33" s="3" t="n"/>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="K34" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="L34" s="3" t="n"/>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="L35" s="3" t="n"/>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="K36" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="L36" s="3" t="n"/>
@@ -1894,7 +1894,7 @@
       </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L37" s="3" t="n"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="K38" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L38" s="3" t="n"/>
@@ -1970,7 +1970,7 @@
       <c r="J39" s="3" t="n"/>
       <c r="K39" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L39" s="3" t="n"/>
@@ -2004,7 +2004,7 @@
       <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L40" s="3" t="n"/>
@@ -2038,7 +2038,7 @@
       <c r="J41" s="3" t="n"/>
       <c r="K41" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L41" s="3" t="n"/>
@@ -2072,7 +2072,7 @@
       <c r="J42" s="3" t="n"/>
       <c r="K42" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L42" s="3" t="n"/>
@@ -2106,7 +2106,7 @@
       <c r="J43" s="3" t="n"/>
       <c r="K43" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L43" s="3" t="n"/>
@@ -2140,7 +2140,7 @@
       <c r="J44" s="3" t="n"/>
       <c r="K44" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L44" s="3" t="n"/>
@@ -2174,7 +2174,7 @@
       <c r="J45" s="3" t="n"/>
       <c r="K45" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L45" s="3" t="n"/>
@@ -2208,7 +2208,7 @@
       <c r="J46" s="3" t="n"/>
       <c r="K46" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L46" s="3" t="n"/>
@@ -2242,7 +2242,7 @@
       <c r="J47" s="3" t="n"/>
       <c r="K47" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L47" s="3" t="n"/>
@@ -2276,7 +2276,7 @@
       <c r="J48" s="3" t="n"/>
       <c r="K48" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L48" s="3" t="n"/>
@@ -2310,7 +2310,7 @@
       <c r="J49" s="3" t="n"/>
       <c r="K49" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L49" s="3" t="n"/>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="K50" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L50" s="3" t="n"/>
@@ -2386,7 +2386,7 @@
       <c r="J51" s="3" t="n"/>
       <c r="K51" s="3" t="inlineStr">
         <is>
-          <t>工厂</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L51" s="3" t="n"/>

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -462,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -549,11 +549,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>C100.C05-032-04-00</t>
         </is>
       </c>
       <c r="C2" s="3" t="n"/>
@@ -563,59 +563,67 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>3</v>
+        <v>500</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>2.04</v>
+        <v>2.8</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>F02</t>
+          <t>F01</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="L2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>E100.020310014</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C3" s="3" t="n"/>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.04</v>
+      </c>
       <c r="H3" s="3" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J3" s="3" t="n"/>
+        <v>1.1</v>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t>F02</t>
+        </is>
+      </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
           <t>SMT工厂设备配件</t>
@@ -625,21 +633,21 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>E100.020310015</t>
+          <t>E100.020310014</t>
         </is>
       </c>
       <c r="C4" s="3" t="n"/>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3" t="n"/>
       <c r="G4" s="3" t="n"/>
@@ -647,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="3" t="n"/>
       <c r="K4" s="3" t="inlineStr">
@@ -659,39 +667,31 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>E100.020310008</t>
+          <t>E100.020310015</t>
         </is>
       </c>
       <c r="C5" s="3" t="n"/>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="n">
-        <v>0.04</v>
-      </c>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
       <c r="H5" s="3" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>F03</t>
-        </is>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="3" t="n"/>
       <c r="K5" s="3" t="inlineStr">
         <is>
           <t>SMT工厂设备配件</t>
@@ -701,37 +701,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-066-02-00</t>
+          <t>E100.020310008</t>
         </is>
       </c>
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>QLDZ.0014</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E6" s="3" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>4.3</v>
+        <v>1.88</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="J6" s="3" t="inlineStr">
         <is>
-          <t>F04</t>
+          <t>F03</t>
         </is>
       </c>
       <c r="K6" s="3" t="inlineStr">
@@ -743,107 +743,115 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>J100.020715018</t>
+          <t>E100.A37-066-02-00</t>
         </is>
       </c>
       <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>N510059196AA</t>
+          <t>QLDZ.0014</t>
         </is>
       </c>
       <c r="E7" s="3" t="n">
-        <v>137</v>
-      </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+        <v>100</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>0.01</v>
+      </c>
       <c r="H7" s="3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J7" s="3" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>F04</t>
+        </is>
+      </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L7" s="3" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>E100.020200009</t>
+          <t>J100.020715018</t>
         </is>
       </c>
       <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>FA2P5N1W20360133</t>
+          <t>N510059196AA</t>
         </is>
       </c>
       <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0.02</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>F05</t>
-        </is>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="J8" s="3" t="n"/>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="L8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>E100.020310017</t>
+          <t>E100.020200009</t>
         </is>
       </c>
       <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>STM86118S</t>
+          <t>FA2P5N1W20360133</t>
         </is>
       </c>
       <c r="E9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0.02</v>
+      </c>
       <c r="H9" s="3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" s="3" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>F05</t>
+        </is>
+      </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
           <t>SMT工厂设备配件</t>
@@ -853,21 +861,21 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>E100.020310012</t>
+          <t>E100.020310017</t>
         </is>
       </c>
       <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>STM8680</t>
+          <t>STM86118S</t>
         </is>
       </c>
       <c r="E10" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
@@ -887,63 +895,55 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>E100.A33-013-03-00</t>
+          <t>E100.020310012</t>
         </is>
       </c>
       <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>STM8680</t>
         </is>
       </c>
       <c r="E11" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
-        <is>
-          <t>F06</t>
-        </is>
-      </c>
+      <c r="J11" s="3" t="n"/>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L11" s="3" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-10-00</t>
+          <t>E100.A33-013-03-00</t>
         </is>
       </c>
       <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>900M-T-sk</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E12" s="3" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1</v>
@@ -952,74 +952,82 @@
         <v>0.01</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>7.55</v>
+        <v>1.44</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.15</v>
+        <v>1.23</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
-          <t>F07</t>
+          <t>F06</t>
         </is>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-04-01</t>
+          <t>J100.S07-010-10-00</t>
         </is>
       </c>
       <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>900M-T-B</t>
+          <t>900M-T-sk</t>
         </is>
       </c>
       <c r="E13" s="3" t="n">
-        <v>500</v>
-      </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0.01</v>
+      </c>
       <c r="H13" s="3" t="n">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J13" s="3" t="n"/>
+        <v>0.15</v>
+      </c>
+      <c r="J13" s="3" t="inlineStr">
+        <is>
+          <t>F07</t>
+        </is>
+      </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>组装厂月度辅耗材</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="L13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-01</t>
+          <t>J100.S07-010-04-01</t>
         </is>
       </c>
       <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>900M-T-4C</t>
+          <t>900M-T-B</t>
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
@@ -1027,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="J14" s="3" t="n"/>
       <c r="K14" s="3" t="inlineStr">
@@ -1039,21 +1047,21 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-06-02</t>
+          <t>J100.S07-010-06-01</t>
         </is>
       </c>
       <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>900M-T-2C</t>
+          <t>900M-T-4C</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3" t="n"/>
       <c r="G15" s="3" t="n"/>
@@ -1061,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3" t="n"/>
       <c r="K15" s="3" t="inlineStr">
@@ -1073,17 +1081,17 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>J100.S07-010-11-00</t>
+          <t>J100.S07-010-06-02</t>
         </is>
       </c>
       <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>900-T-1.2D</t>
+          <t>900M-T-2C</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
@@ -1107,21 +1115,21 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-007-01-00</t>
+          <t>J100.S07-010-11-00</t>
         </is>
       </c>
       <c r="C17" s="3" t="n"/>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>WRNT-013</t>
+          <t>900-T-1.2D</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="F17" s="3" t="n"/>
       <c r="G17" s="3" t="n"/>
@@ -1129,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="J17" s="3" t="n"/>
       <c r="K17" s="3" t="inlineStr">
@@ -1141,21 +1149,21 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-019-06-00</t>
+          <t>C100.C06-007-01-00</t>
         </is>
       </c>
       <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>WRNT-013</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
@@ -1163,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="J18" s="3" t="n"/>
       <c r="K18" s="3" t="inlineStr">
@@ -1175,11 +1183,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-15-00</t>
+          <t>C100.C06-019-06-00</t>
         </is>
       </c>
       <c r="C19" s="3" t="n"/>
@@ -1189,25 +1197,17 @@
         </is>
       </c>
       <c r="E19" s="3" t="n">
-        <v>388</v>
-      </c>
-      <c r="F19" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3" t="n">
-        <v>0.02</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>F08</t>
-        </is>
-      </c>
+        <v>1.25</v>
+      </c>
+      <c r="J19" s="3" t="n"/>
       <c r="K19" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1217,11 +1217,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-16-00</t>
+          <t>E100.A20-001-15-00</t>
         </is>
       </c>
       <c r="C20" s="3" t="n"/>
@@ -1231,17 +1231,25 @@
         </is>
       </c>
       <c r="E20" s="3" t="n">
-        <v>457</v>
-      </c>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
+        <v>388</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0.02</v>
+      </c>
       <c r="H20" s="3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="J20" s="3" t="n"/>
+        <v>3.49</v>
+      </c>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>F08</t>
+        </is>
+      </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
           <t>组装厂月度辅耗材</t>
@@ -1251,11 +1259,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-17-00</t>
+          <t>E100.A20-001-16-00</t>
         </is>
       </c>
       <c r="C21" s="3" t="n"/>
@@ -1265,7 +1273,7 @@
         </is>
       </c>
       <c r="E21" s="3" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F21" s="3" t="n"/>
       <c r="G21" s="3" t="n"/>
@@ -1273,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>4.12</v>
+        <v>4.11</v>
       </c>
       <c r="J21" s="3" t="n"/>
       <c r="K21" s="3" t="inlineStr">
@@ -1285,11 +1293,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-20-00</t>
+          <t>E100.A20-001-17-00</t>
         </is>
       </c>
       <c r="C22" s="3" t="n"/>
@@ -1299,7 +1307,7 @@
         </is>
       </c>
       <c r="E22" s="3" t="n">
-        <v>287</v>
+        <v>458</v>
       </c>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
@@ -1307,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>2.58</v>
+        <v>4.12</v>
       </c>
       <c r="J22" s="3" t="n"/>
       <c r="K22" s="3" t="inlineStr">
@@ -1319,11 +1327,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-52-00</t>
+          <t>E100.A20-001-20-00</t>
         </is>
       </c>
       <c r="C23" s="3" t="n"/>
@@ -1333,7 +1341,7 @@
         </is>
       </c>
       <c r="E23" s="3" t="n">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="F23" s="3" t="n"/>
       <c r="G23" s="3" t="n"/>
@@ -1341,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>0.36</v>
+        <v>2.58</v>
       </c>
       <c r="J23" s="3" t="n"/>
       <c r="K23" s="3" t="inlineStr">
@@ -1353,11 +1361,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-53-00</t>
+          <t>E100.A20-001-52-00</t>
         </is>
       </c>
       <c r="C24" s="3" t="n"/>
@@ -1367,7 +1375,7 @@
         </is>
       </c>
       <c r="E24" s="3" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
@@ -1375,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>0.54</v>
+        <v>0.36</v>
       </c>
       <c r="J24" s="3" t="n"/>
       <c r="K24" s="3" t="inlineStr">
@@ -1387,11 +1395,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-54-00</t>
+          <t>E100.A20-001-53-00</t>
         </is>
       </c>
       <c r="C25" s="3" t="n"/>
@@ -1401,7 +1409,7 @@
         </is>
       </c>
       <c r="E25" s="3" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
@@ -1409,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>0.45</v>
+        <v>0.54</v>
       </c>
       <c r="J25" s="3" t="n"/>
       <c r="K25" s="3" t="inlineStr">
@@ -1421,11 +1429,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-22-00</t>
+          <t>E100.A20-001-54-00</t>
         </is>
       </c>
       <c r="C26" s="3" t="n"/>
@@ -1455,11 +1463,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>E100.A20-001-33-00</t>
+          <t>E100.A20-001-22-00</t>
         </is>
       </c>
       <c r="C27" s="3" t="n"/>
@@ -1469,7 +1477,7 @@
         </is>
       </c>
       <c r="E27" s="3" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F27" s="3" t="n"/>
       <c r="G27" s="3" t="n"/>
@@ -1477,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>0.99</v>
+        <v>0.45</v>
       </c>
       <c r="J27" s="3" t="n"/>
       <c r="K27" s="3" t="inlineStr">
@@ -1489,11 +1497,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-01-00</t>
+          <t>E100.A20-001-33-00</t>
         </is>
       </c>
       <c r="C28" s="3" t="n"/>
@@ -1503,39 +1511,31 @@
         </is>
       </c>
       <c r="E28" s="3" t="n">
-        <v>2040</v>
-      </c>
-      <c r="F28" s="3" t="n">
-        <v>68</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>6.12</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n">
-        <v>17.71</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J28" s="3" t="inlineStr">
-        <is>
-          <t>F09-F76</t>
-        </is>
-      </c>
+        <v>0.99</v>
+      </c>
+      <c r="J28" s="3" t="n"/>
       <c r="K28" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂月度辅耗材</t>
+          <t>组装厂月度辅耗材</t>
         </is>
       </c>
       <c r="L28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>C100.C06-006-02-00</t>
+          <t>C100.C06-006-01-00</t>
         </is>
       </c>
       <c r="C29" s="3" t="n"/>
@@ -1545,23 +1545,23 @@
         </is>
       </c>
       <c r="E29" s="3" t="n">
-        <v>2800</v>
+        <v>2040</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>3.92</v>
+        <v>6.12</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>15.5</v>
+        <v>17.71</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>866</v>
+        <v>1200</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t>F77-F132</t>
+          <t>F09-F76</t>
         </is>
       </c>
       <c r="K29" s="3" t="inlineStr">
@@ -1573,129 +1573,129 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>E100.020349014</t>
+          <t>C100.C06-006-02-00</t>
         </is>
       </c>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>AT-TSSOP20-CMS</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E30" s="3" t="n">
-        <v>2</v>
+        <v>2800</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>0.01</v>
+        <v>3.92</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>1</v>
+        <v>15.5</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>0.3</v>
+        <v>866</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
-          <t>F133</t>
+          <t>F77-F132</t>
         </is>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>SMT工厂月度辅耗材</t>
         </is>
       </c>
       <c r="L30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>E100.A37-154-01-00</t>
+          <t>E100.020349014</t>
         </is>
       </c>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>KLV-M913A-A10</t>
+          <t>AT-TSSOP20-CMS</t>
         </is>
       </c>
       <c r="E31" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
+        <v>2</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>0.01</v>
+      </c>
       <c r="H31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J31" s="3" t="n"/>
+        <v>0.3</v>
+      </c>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>F133</t>
+        </is>
+      </c>
       <c r="K31" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="L31" s="3" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>E100.0111901002</t>
+          <t>E100.A37-154-01-00</t>
         </is>
       </c>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KLV-M913A-A10</t>
         </is>
       </c>
       <c r="E32" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>0.06</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n">
-        <v>34.24</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>F134</t>
-        </is>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="J32" s="3" t="n"/>
       <c r="K32" s="3" t="inlineStr">
         <is>
-          <t>麦格米特</t>
+          <t>SMT工厂设备配件</t>
         </is>
       </c>
       <c r="L32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>J100.031003005</t>
+          <t>E100.0111901002</t>
         </is>
       </c>
       <c r="C33" s="3" t="n"/>
@@ -1705,23 +1705,23 @@
         </is>
       </c>
       <c r="E33" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F33" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>34.91</v>
+        <v>34.24</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>34</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
-          <t>F137</t>
+          <t>F134</t>
         </is>
       </c>
       <c r="K33" s="3" t="inlineStr">
@@ -1733,11 +1733,11 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>E100.021335001</t>
+          <t>J100.031003005</t>
         </is>
       </c>
       <c r="C34" s="3" t="n"/>
@@ -1747,23 +1747,23 @@
         </is>
       </c>
       <c r="E34" s="3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F34" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="H34" s="3" t="n">
-        <v>10.63</v>
+        <v>34.91</v>
       </c>
       <c r="I34" s="3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>F138</t>
+          <t>F137</t>
         </is>
       </c>
       <c r="K34" s="3" t="inlineStr">
@@ -1775,11 +1775,11 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-003-01-00</t>
+          <t>E100.021335001</t>
         </is>
       </c>
       <c r="C35" s="3" t="n"/>
@@ -1789,39 +1789,39 @@
         </is>
       </c>
       <c r="E35" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>3</v>
+        <v>0.01</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>37</v>
+        <v>10.63</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
-          <t>F146-F155</t>
+          <t>F138</t>
         </is>
       </c>
       <c r="K35" s="3" t="inlineStr">
         <is>
-          <t>TP-LINK</t>
+          <t>麦格米特</t>
         </is>
       </c>
       <c r="L35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>E100.E17-004-01-00</t>
+          <t>E100.E17-003-01-00</t>
         </is>
       </c>
       <c r="C36" s="3" t="n"/>
@@ -1837,17 +1837,17 @@
         <v>10</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H36" s="3" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I36" s="3" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
-          <t>F156-F165</t>
+          <t>F146-F155</t>
         </is>
       </c>
       <c r="K36" s="3" t="inlineStr">
@@ -1859,63 +1859,63 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>E100.020396013</t>
+          <t>E100.E17-004-01-00</t>
         </is>
       </c>
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>AEVF4</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E37" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>0.02</v>
+        <v>4.3</v>
       </c>
       <c r="H37" s="3" t="n">
-        <v>15.16</v>
+        <v>54</v>
       </c>
       <c r="I37" s="3" t="n">
-        <v>15</v>
+        <v>440</v>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
-          <t>F166</t>
+          <t>F156-F165</t>
         </is>
       </c>
       <c r="K37" s="3" t="inlineStr">
         <is>
-          <t>SMT工厂设备配件</t>
+          <t>TP-LINK</t>
         </is>
       </c>
       <c r="L37" s="3" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>E100.0203104001</t>
+          <t>E100.020396013</t>
         </is>
       </c>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>AEVF4</t>
         </is>
       </c>
       <c r="E38" s="3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F38" s="3" t="n">
         <v>1</v>
@@ -1924,14 +1924,14 @@
         <v>0.02</v>
       </c>
       <c r="H38" s="3" t="n">
-        <v>5</v>
+        <v>15.16</v>
       </c>
       <c r="I38" s="3" t="n">
-        <v>0.09</v>
+        <v>15</v>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
-          <t>F167</t>
+          <t>F166</t>
         </is>
       </c>
       <c r="K38" s="3" t="inlineStr">
@@ -1943,31 +1943,39 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>E100.0203154000</t>
+          <t>E100.0203104001</t>
         </is>
       </c>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>TG-205A-FU</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E39" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H39" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="F39" s="3" t="n"/>
-      <c r="G39" s="3" t="n"/>
-      <c r="H39" s="3" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" s="3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J39" s="3" t="n"/>
+        <v>0.09</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>F167</t>
+        </is>
+      </c>
       <c r="K39" s="3" t="inlineStr">
         <is>
           <t>SMT工厂设备配件</t>
@@ -1977,21 +1985,21 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>E100.0203125000</t>
+          <t>E100.0203154000</t>
         </is>
       </c>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>LS1D-01033</t>
+          <t>TG-205A-FU</t>
         </is>
       </c>
       <c r="E40" s="3" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="F40" s="3" t="n"/>
       <c r="G40" s="3" t="n"/>
@@ -1999,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>4.5</v>
+        <v>0.04</v>
       </c>
       <c r="J40" s="3" t="n"/>
       <c r="K40" s="3" t="inlineStr">
@@ -2011,21 +2019,21 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>E100.0203162159</t>
+          <t>E100.0203125000</t>
         </is>
       </c>
       <c r="C41" s="3" t="n"/>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>LS1D-01033</t>
         </is>
       </c>
       <c r="E41" s="3" t="n">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3" t="n"/>
       <c r="G41" s="3" t="n"/>
@@ -2033,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>0.04</v>
+        <v>4.5</v>
       </c>
       <c r="J41" s="3" t="n"/>
       <c r="K41" s="3" t="inlineStr">
@@ -2045,11 +2053,11 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>E100.0203133001</t>
+          <t>E100.0203162159</t>
         </is>
       </c>
       <c r="C42" s="3" t="n"/>
@@ -2059,7 +2067,7 @@
         </is>
       </c>
       <c r="E42" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F42" s="3" t="n"/>
       <c r="G42" s="3" t="n"/>
@@ -2079,21 +2087,21 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>E100.E00-011-15-01</t>
+          <t>E100.0203133001</t>
         </is>
       </c>
       <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>KYB-M7027-001</t>
+          <t>/</t>
         </is>
       </c>
       <c r="E43" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
@@ -2101,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="J43" s="3" t="n"/>
       <c r="K43" s="3" t="inlineStr">
@@ -2113,21 +2121,21 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>E100.020396061</t>
+          <t>E100.E00-011-15-01</t>
         </is>
       </c>
       <c r="C44" s="3" t="n"/>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>/</t>
+          <t>KYB-M7027-001</t>
         </is>
       </c>
       <c r="E44" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F44" s="3" t="n"/>
       <c r="G44" s="3" t="n"/>
@@ -2135,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="3" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="J44" s="3" t="n"/>
       <c r="K44" s="3" t="inlineStr">
@@ -2147,11 +2155,11 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>E100.020396062</t>
+          <t>E100.020396061</t>
         </is>
       </c>
       <c r="C45" s="3" t="n"/>
@@ -2181,11 +2189,11 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>E100.020396047</t>
+          <t>E100.020396062</t>
         </is>
       </c>
       <c r="C46" s="3" t="n"/>
@@ -2195,7 +2203,7 @@
         </is>
       </c>
       <c r="E46" s="3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F46" s="3" t="n"/>
       <c r="G46" s="3" t="n"/>
@@ -2203,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="J46" s="3" t="n"/>
       <c r="K46" s="3" t="inlineStr">
@@ -2215,11 +2223,11 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>E100.020396048</t>
+          <t>E100.020396047</t>
         </is>
       </c>
       <c r="C47" s="3" t="n"/>
@@ -2249,11 +2257,11 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>E100.020396049</t>
+          <t>E100.020396048</t>
         </is>
       </c>
       <c r="C48" s="3" t="n"/>
@@ -2283,11 +2291,11 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>E100.020396050</t>
+          <t>E100.020396049</t>
         </is>
       </c>
       <c r="C49" s="3" t="n"/>
@@ -2317,11 +2325,11 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>E100.020396055</t>
+          <t>E100.020396050</t>
         </is>
       </c>
       <c r="C50" s="3" t="n"/>
@@ -2333,23 +2341,15 @@
       <c r="E50" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F50" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="n">
-        <v>0.05</v>
-      </c>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
       <c r="H50" s="3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I50" s="3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>F168</t>
-        </is>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="J50" s="3" t="n"/>
       <c r="K50" s="3" t="inlineStr">
         <is>
           <t>SMT工厂设备配件</t>
@@ -2359,11 +2359,11 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>E100.020396056</t>
+          <t>E100.020396055</t>
         </is>
       </c>
       <c r="C51" s="3" t="n"/>
@@ -2375,15 +2375,23 @@
       <c r="E51" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F51" s="3" t="n"/>
-      <c r="G51" s="3" t="n"/>
+      <c r="F51" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>0.05</v>
+      </c>
       <c r="H51" s="3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I51" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J51" s="3" t="n"/>
+        <v>4.2</v>
+      </c>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>F168</t>
+        </is>
+      </c>
       <c r="K51" s="3" t="inlineStr">
         <is>
           <t>SMT工厂设备配件</t>
@@ -2392,18 +2400,52 @@
       <c r="L51" s="3" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="3" t="n"/>
+      <c r="A52" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>E100.020396056</t>
+        </is>
+      </c>
       <c r="C52" s="3" t="n"/>
-      <c r="D52" s="3" t="n"/>
-      <c r="E52" s="3" t="n"/>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="F52" s="3" t="n"/>
       <c r="G52" s="3" t="n"/>
-      <c r="H52" s="3" t="n"/>
-      <c r="I52" s="3" t="n"/>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>4</v>
+      </c>
       <c r="J52" s="3" t="n"/>
-      <c r="K52" s="3" t="n"/>
-      <c r="L52" s="3" t="inlineStr">
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>SMT工厂设备配件</t>
+        </is>
+      </c>
+      <c r="L52" s="3" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="3" t="n"/>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+      <c r="I53" s="3" t="n"/>
+      <c r="J53" s="3" t="n"/>
+      <c r="K53" s="3" t="n"/>
+      <c r="L53" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -556,20 +556,24 @@
           <t>C100.C05-032-04-00</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>铣刀</t>
+        </is>
+      </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
           <t>/</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.01</v>
+        <v>0.00996</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>2.8</v>
@@ -598,7 +602,11 @@
           <t>E100.020310008</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>红外发热管</t>
+        </is>
+      </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -640,7 +648,11 @@
           <t>E100.020310014</t>
         </is>
       </c>
-      <c r="C4" s="3" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
           <t>12-14</t>
@@ -674,7 +686,11 @@
           <t>E100.020310015</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>联轴器</t>
+        </is>
+      </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
           <t>8-14</t>
@@ -708,7 +724,11 @@
           <t>E100.020310008</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>红外发热管</t>
+        </is>
+      </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -750,7 +770,11 @@
           <t>E100.A37-066-02-00</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n"/>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>重型双柱爪</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
           <t>QLDZ.0014</t>
@@ -792,7 +816,11 @@
           <t>J100.020715018</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n"/>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>过滤棉</t>
+        </is>
+      </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
           <t>N510059196AA</t>
@@ -826,7 +854,11 @@
           <t>E100.020200009</t>
         </is>
       </c>
-      <c r="C9" s="3" t="n"/>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>变频器</t>
+        </is>
+      </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
           <t>FA2P5N1W20360133</t>
@@ -868,7 +900,11 @@
           <t>E100.020310017</t>
         </is>
       </c>
-      <c r="C10" s="3" t="n"/>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>电机</t>
+        </is>
+      </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
           <t>STM86118S</t>
@@ -902,7 +938,11 @@
           <t>E100.020310012</t>
         </is>
       </c>
-      <c r="C11" s="3" t="n"/>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>电机</t>
+        </is>
+      </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
           <t>STM8680</t>
@@ -936,7 +976,11 @@
           <t>E100.A33-013-03-00</t>
         </is>
       </c>
-      <c r="C12" s="3" t="n"/>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>气密阀</t>
+        </is>
+      </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -978,7 +1022,11 @@
           <t>J100.S07-010-10-00</t>
         </is>
       </c>
-      <c r="C13" s="3" t="n"/>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
           <t>900M-T-sk</t>
@@ -1020,7 +1068,11 @@
           <t>J100.S07-010-04-01</t>
         </is>
       </c>
-      <c r="C14" s="3" t="n"/>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
           <t>900M-T-B</t>
@@ -1054,7 +1106,11 @@
           <t>J100.S07-010-06-01</t>
         </is>
       </c>
-      <c r="C15" s="3" t="n"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
           <t>900M-T-4C</t>
@@ -1088,7 +1144,11 @@
           <t>J100.S07-010-06-02</t>
         </is>
       </c>
-      <c r="C16" s="3" t="n"/>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
           <t>900M-T-2C</t>
@@ -1122,7 +1182,11 @@
           <t>J100.S07-010-11-00</t>
         </is>
       </c>
-      <c r="C17" s="3" t="n"/>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>烙铁头</t>
+        </is>
+      </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
           <t>900-T-1.2D</t>
@@ -1156,7 +1220,11 @@
           <t>C100.C06-007-01-00</t>
         </is>
       </c>
-      <c r="C18" s="3" t="n"/>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>热电偶</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
           <t>WRNT-013</t>
@@ -1190,7 +1258,11 @@
           <t>C100.C06-019-06-00</t>
         </is>
       </c>
-      <c r="C19" s="3" t="n"/>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>焊接海绵</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1224,7 +1296,11 @@
           <t>E100.A20-001-15-00</t>
         </is>
       </c>
-      <c r="C20" s="3" t="n"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1266,7 +1342,11 @@
           <t>E100.A20-001-16-00</t>
         </is>
       </c>
-      <c r="C21" s="3" t="n"/>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1300,7 +1380,11 @@
           <t>E100.A20-001-17-00</t>
         </is>
       </c>
-      <c r="C22" s="3" t="n"/>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1334,7 +1418,11 @@
           <t>E100.A20-001-20-00</t>
         </is>
       </c>
-      <c r="C23" s="3" t="n"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1368,7 +1456,11 @@
           <t>E100.A20-001-52-00</t>
         </is>
       </c>
-      <c r="C24" s="3" t="n"/>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1402,7 +1494,11 @@
           <t>E100.A20-001-53-00</t>
         </is>
       </c>
-      <c r="C25" s="3" t="n"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1436,7 +1532,11 @@
           <t>E100.A20-001-54-00</t>
         </is>
       </c>
-      <c r="C26" s="3" t="n"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1470,7 +1570,11 @@
           <t>E100.A20-001-22-00</t>
         </is>
       </c>
-      <c r="C27" s="3" t="n"/>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1504,7 +1608,11 @@
           <t>E100.A20-001-33-00</t>
         </is>
       </c>
-      <c r="C28" s="3" t="n"/>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>电批头</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1538,7 +1646,11 @@
           <t>C100.C06-006-01-00</t>
         </is>
       </c>
-      <c r="C29" s="3" t="n"/>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>钢网擦拭纸</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1580,7 +1692,11 @@
           <t>C100.C06-006-02-00</t>
         </is>
       </c>
-      <c r="C30" s="3" t="n"/>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>钢网擦拭纸</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1622,7 +1738,11 @@
           <t>E100.020349014</t>
         </is>
       </c>
-      <c r="C31" s="3" t="n"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>烧录座</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
           <t>AT-TSSOP20-CMS</t>
@@ -1664,7 +1784,11 @@
           <t>E100.A37-154-01-00</t>
         </is>
       </c>
-      <c r="C32" s="3" t="n"/>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>滑轮</t>
+        </is>
+      </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
           <t>KLV-M913A-A10</t>
@@ -1698,7 +1822,11 @@
           <t>E100.0111901002</t>
         </is>
       </c>
-      <c r="C33" s="3" t="n"/>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>打包架</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1717,7 +1845,7 @@
         <v>34.24</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>66.09999999999999</v>
+        <v>66.02</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1740,7 +1868,11 @@
           <t>J100.031003005</t>
         </is>
       </c>
-      <c r="C34" s="3" t="n"/>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>周转车</t>
+        </is>
+      </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1782,7 +1914,11 @@
           <t>E100.021335001</t>
         </is>
       </c>
-      <c r="C35" s="3" t="n"/>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>物料架</t>
+        </is>
+      </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1801,7 +1937,7 @@
         <v>10.63</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>0</v>
+        <v>207.46</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -1824,7 +1960,11 @@
           <t>E100.E17-003-01-00</t>
         </is>
       </c>
-      <c r="C36" s="3" t="n"/>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>屏蔽箱</t>
+        </is>
+      </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1866,7 +2006,11 @@
           <t>E100.E17-004-01-00</t>
         </is>
       </c>
-      <c r="C37" s="3" t="n"/>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>屏蔽箱</t>
+        </is>
+      </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1908,7 +2052,11 @@
           <t>E100.020396013</t>
         </is>
       </c>
-      <c r="C38" s="3" t="n"/>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>马达</t>
+        </is>
+      </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
           <t>AEVF4</t>
@@ -1950,7 +2098,11 @@
           <t>E100.0203104001</t>
         </is>
       </c>
-      <c r="C39" s="3" t="n"/>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>太阳片</t>
+        </is>
+      </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -1992,7 +2144,11 @@
           <t>E100.0203154000</t>
         </is>
       </c>
-      <c r="C40" s="3" t="n"/>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>电机</t>
+        </is>
+      </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
           <t>TG-205A-FU</t>
@@ -2026,7 +2182,11 @@
           <t>E100.0203125000</t>
         </is>
       </c>
-      <c r="C41" s="3" t="n"/>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>链夹</t>
+        </is>
+      </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
           <t>LS1D-01033</t>
@@ -2060,7 +2220,11 @@
           <t>E100.0203162159</t>
         </is>
       </c>
-      <c r="C42" s="3" t="n"/>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>调节座</t>
+        </is>
+      </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2094,7 +2258,11 @@
           <t>E100.0203133001</t>
         </is>
       </c>
-      <c r="C43" s="3" t="n"/>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>模头</t>
+        </is>
+      </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2128,7 +2296,11 @@
           <t>E100.E00-011-15-01</t>
         </is>
       </c>
-      <c r="C44" s="3" t="n"/>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>电刷</t>
+        </is>
+      </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
           <t>KYB-M7027-001</t>
@@ -2162,7 +2334,11 @@
           <t>E100.020396061</t>
         </is>
       </c>
-      <c r="C45" s="3" t="n"/>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>密封圈</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2196,7 +2372,11 @@
           <t>E100.020396062</t>
         </is>
       </c>
-      <c r="C46" s="3" t="n"/>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>密封圈</t>
+        </is>
+      </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2230,7 +2410,11 @@
           <t>E100.020396047</t>
         </is>
       </c>
-      <c r="C47" s="3" t="n"/>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2264,7 +2448,11 @@
           <t>E100.020396048</t>
         </is>
       </c>
-      <c r="C48" s="3" t="n"/>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2298,7 +2486,11 @@
           <t>E100.020396049</t>
         </is>
       </c>
-      <c r="C49" s="3" t="n"/>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2332,7 +2524,11 @@
           <t>E100.020396050</t>
         </is>
       </c>
-      <c r="C50" s="3" t="n"/>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>齿轮</t>
+        </is>
+      </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2366,7 +2562,11 @@
           <t>E100.020396055</t>
         </is>
       </c>
-      <c r="C51" s="3" t="n"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>发热板</t>
+        </is>
+      </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
           <t>/</t>
@@ -2408,7 +2608,11 @@
           <t>E100.020396056</t>
         </is>
       </c>
-      <c r="C52" s="3" t="n"/>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>发热板</t>
+        </is>
+      </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
           <t>/</t>

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.996</v>
+        <v>0.994</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.00996</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>2.8</v>

--- a/outputs/pl_original_invoice.xlsx
+++ b/outputs/pl_original_invoice.xlsx
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.994</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.009939999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>2.8</v>
@@ -1845,7 +1845,7 @@
         <v>34.24</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>66.02</v>
+        <v>64.2</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         <v>10.63</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>207.46</v>
+        <v>205</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
